--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14865" windowHeight="6480"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14865" windowHeight="6480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="InitialReview" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Select Location</t>
   </si>
@@ -32,19 +32,55 @@
     <t>Accept</t>
   </si>
   <si>
-    <t>"BALLIDU CLOSE,ELANORA"</t>
-  </si>
-  <si>
-    <t>"senbosadmin"</t>
-  </si>
-  <si>
-    <t>"KA01"</t>
-  </si>
-  <si>
-    <t>"QLD"</t>
-  </si>
-  <si>
-    <t>"Alert Accepted"</t>
+    <t>BALLIDU CLOSE,ELANORA</t>
+  </si>
+  <si>
+    <t>senbosadmin</t>
+  </si>
+  <si>
+    <t>KA01</t>
+  </si>
+  <si>
+    <t>QLD</t>
+  </si>
+  <si>
+    <t>Alert Accepted</t>
+  </si>
+  <si>
+    <t>View page</t>
+  </si>
+  <si>
+    <t>Confirmation of Offender / Contact details</t>
+  </si>
+  <si>
+    <t>Owner info</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Address Info</t>
+  </si>
+  <si>
+    <t>Basvanagudi</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Reject button</t>
+  </si>
+  <si>
+    <t>Alert Rejected</t>
+  </si>
+  <si>
+    <t>"584101"</t>
   </si>
 </sst>
 </file>
@@ -94,10 +130,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -450,12 +489,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>